--- a/data/sub-9999/retrieval3.xlsx
+++ b/data/sub-9999/retrieval3.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>retrieval3</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
     <t>SetC/109a.jpg</t>
   </si>
   <si>
@@ -233,6 +239,15 @@
   </si>
   <si>
     <t>SetC/180a.jpg</t>
+  </si>
+  <si>
+    <t>targ</t>
+  </si>
+  <si>
+    <t>lure</t>
+  </si>
+  <si>
+    <t>foil</t>
   </si>
 </sst>
 </file>
@@ -590,375 +605,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/sub-9999/retrieval3.xlsx
+++ b/data/sub-9999/retrieval3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
   <si>
     <t>retrieval3</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>foil</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -629,8 +638,8 @@
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -640,8 +649,8 @@
       <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -651,8 +660,8 @@
       <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -662,8 +671,8 @@
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -673,8 +682,8 @@
       <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -684,8 +693,8 @@
       <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -695,8 +704,8 @@
       <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -706,8 +715,8 @@
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -717,8 +726,8 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -728,8 +737,8 @@
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -739,8 +748,8 @@
       <c r="B12" t="s">
         <v>75</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -750,8 +759,8 @@
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -761,8 +770,8 @@
       <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -772,8 +781,8 @@
       <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -783,8 +792,8 @@
       <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -794,8 +803,8 @@
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -805,8 +814,8 @@
       <c r="B18" t="s">
         <v>75</v>
       </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="C18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -816,8 +825,8 @@
       <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="C19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -827,8 +836,8 @@
       <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -838,8 +847,8 @@
       <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="C21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -849,8 +858,8 @@
       <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -860,8 +869,8 @@
       <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="C23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -871,8 +880,8 @@
       <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -882,8 +891,8 @@
       <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -893,8 +902,8 @@
       <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26">
-        <v>2</v>
+      <c r="C26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -904,8 +913,8 @@
       <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27">
-        <v>2</v>
+      <c r="C27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -915,8 +924,8 @@
       <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -926,8 +935,8 @@
       <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29">
-        <v>2</v>
+      <c r="C29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -937,8 +946,8 @@
       <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="C30">
-        <v>2</v>
+      <c r="C30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -948,8 +957,8 @@
       <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -959,8 +968,8 @@
       <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32">
-        <v>2</v>
+      <c r="C32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -970,8 +979,8 @@
       <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C33">
-        <v>2</v>
+      <c r="C33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -981,8 +990,8 @@
       <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34">
-        <v>2</v>
+      <c r="C34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -992,8 +1001,8 @@
       <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="C35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1003,8 +1012,8 @@
       <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C36">
-        <v>2</v>
+      <c r="C36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1014,8 +1023,8 @@
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37">
-        <v>2</v>
+      <c r="C37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1025,8 +1034,8 @@
       <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="C38">
-        <v>2</v>
+      <c r="C38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1036,8 +1045,8 @@
       <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="C39">
-        <v>2</v>
+      <c r="C39" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1047,8 +1056,8 @@
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C40">
-        <v>2</v>
+      <c r="C40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1058,8 +1067,8 @@
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41">
-        <v>2</v>
+      <c r="C41" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1069,8 +1078,8 @@
       <c r="B42" t="s">
         <v>76</v>
       </c>
-      <c r="C42">
-        <v>2</v>
+      <c r="C42" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1080,8 +1089,8 @@
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="C43" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1091,8 +1100,8 @@
       <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="C44">
-        <v>2</v>
+      <c r="C44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1102,8 +1111,8 @@
       <c r="B45" t="s">
         <v>76</v>
       </c>
-      <c r="C45">
-        <v>2</v>
+      <c r="C45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1113,8 +1122,8 @@
       <c r="B46" t="s">
         <v>76</v>
       </c>
-      <c r="C46">
-        <v>2</v>
+      <c r="C46" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1124,8 +1133,8 @@
       <c r="B47" t="s">
         <v>76</v>
       </c>
-      <c r="C47">
-        <v>2</v>
+      <c r="C47" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1135,8 +1144,8 @@
       <c r="B48" t="s">
         <v>76</v>
       </c>
-      <c r="C48">
-        <v>2</v>
+      <c r="C48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1146,8 +1155,8 @@
       <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="C49">
-        <v>2</v>
+      <c r="C49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1157,8 +1166,8 @@
       <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C50">
-        <v>3</v>
+      <c r="C50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1168,8 +1177,8 @@
       <c r="B51" t="s">
         <v>77</v>
       </c>
-      <c r="C51">
-        <v>3</v>
+      <c r="C51" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1179,8 +1188,8 @@
       <c r="B52" t="s">
         <v>77</v>
       </c>
-      <c r="C52">
-        <v>3</v>
+      <c r="C52" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1190,8 +1199,8 @@
       <c r="B53" t="s">
         <v>77</v>
       </c>
-      <c r="C53">
-        <v>3</v>
+      <c r="C53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1201,8 +1210,8 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54">
-        <v>3</v>
+      <c r="C54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1212,8 +1221,8 @@
       <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="C55">
-        <v>3</v>
+      <c r="C55" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1223,8 +1232,8 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56">
-        <v>3</v>
+      <c r="C56" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1234,8 +1243,8 @@
       <c r="B57" t="s">
         <v>77</v>
       </c>
-      <c r="C57">
-        <v>3</v>
+      <c r="C57" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1245,8 +1254,8 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58">
-        <v>3</v>
+      <c r="C58" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1256,8 +1265,8 @@
       <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="C59">
-        <v>3</v>
+      <c r="C59" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1267,8 +1276,8 @@
       <c r="B60" t="s">
         <v>77</v>
       </c>
-      <c r="C60">
-        <v>3</v>
+      <c r="C60" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1278,8 +1287,8 @@
       <c r="B61" t="s">
         <v>77</v>
       </c>
-      <c r="C61">
-        <v>3</v>
+      <c r="C61" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1289,8 +1298,8 @@
       <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="C62">
-        <v>3</v>
+      <c r="C62" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1300,8 +1309,8 @@
       <c r="B63" t="s">
         <v>77</v>
       </c>
-      <c r="C63">
-        <v>3</v>
+      <c r="C63" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1311,8 +1320,8 @@
       <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="C64">
-        <v>3</v>
+      <c r="C64" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1322,8 +1331,8 @@
       <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C65">
-        <v>3</v>
+      <c r="C65" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1333,8 +1342,8 @@
       <c r="B66" t="s">
         <v>77</v>
       </c>
-      <c r="C66">
-        <v>3</v>
+      <c r="C66" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1344,8 +1353,8 @@
       <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="C67">
-        <v>3</v>
+      <c r="C67" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1355,8 +1364,8 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68">
-        <v>3</v>
+      <c r="C68" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1366,8 +1375,8 @@
       <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="C69">
-        <v>3</v>
+      <c r="C69" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1377,8 +1386,8 @@
       <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="C70">
-        <v>3</v>
+      <c r="C70" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1388,8 +1397,8 @@
       <c r="B71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
-        <v>3</v>
+      <c r="C71" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1399,8 +1408,8 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72">
-        <v>3</v>
+      <c r="C72" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1410,8 +1419,8 @@
       <c r="B73" t="s">
         <v>77</v>
       </c>
-      <c r="C73">
-        <v>3</v>
+      <c r="C73" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
